--- a/resources/vo_advisering.xlsx
+++ b/resources/vo_advisering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\surfdrive\SoDa\projects\kansenkaart\kansenkaart_pipeline\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenlam20/GitHub/kansenkaart_pipeline/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9462528F-69D6-44F7-9690-01220D815AE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269AF1FF-755A-6746-99ED-84E570A2C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="3480" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{32027DCC-B86E-4082-AADA-A20C96C0E2E4}"/>
+    <workbookView xWindow="-33940" yWindow="-240" windowWidth="32260" windowHeight="17420" activeTab="1" xr2:uid="{32027DCC-B86E-4082-AADA-A20C96C0E2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="34">
   <si>
     <t>01 VSO</t>
   </si>
@@ -134,16 +134,25 @@
   </si>
   <si>
     <t>Teacher</t>
+  </si>
+  <si>
+    <t>11 Pro t/m VMBO-BL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,21 +196,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -257,7 +275,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -283,20 +301,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC708365-BFD4-4A58-8703-AC2FED4A049D}" name="over_under" displayName="over_under" ref="A2:K25" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:K25" xr:uid="{3756C635-955B-4656-95FB-21CFF78EE2F1}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC708365-BFD4-4A58-8703-AC2FED4A049D}" name="over_under" displayName="over_under" ref="A2:L25" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A2:L25" xr:uid="{3756C635-955B-4656-95FB-21CFF78EE2F1}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{523EEB4D-6181-46C9-8F19-B9835D56A4EB}" name="Teacher" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{0A3F43DB-FB83-4F2A-89CF-630722EEDFA1}" name="10 Praktijkonderwijs" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{32B48A5D-2A89-4E2B-80B0-4B9F958B160F}" name="20 VMBO BL" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9416D61C-09B9-41BA-A497-A65F5E93B9E3}" name="22 VMBO BL t/m VMBO KL" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2885ED74-72C8-4490-AA1F-55FBFD4E6869}" name="30 VMBO KL" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6F27A0ED-ACFB-49A8-8219-C1446A4353F3}" name="34 VMBO KL t/m VMBO TL" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{CDC606EC-C2E1-455C-89E1-94C7ADB13038}" name="42 VMBO GL t/m VMBO TL" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{32B48A5D-2A89-4E2B-80B0-4B9F958B160F}" name="11 Pro t/m VMBO-BL" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9416D61C-09B9-41BA-A497-A65F5E93B9E3}" name="20 VMBO BL" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{2885ED74-72C8-4490-AA1F-55FBFD4E6869}" name="22 VMBO BL t/m VMBO KL" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{69AEA0A9-ED0F-E340-857E-513C81F8C01C}" name="30 VMBO KL" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{6F27A0ED-ACFB-49A8-8219-C1446A4353F3}" name="34 VMBO KL t/m VMBO TL" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CDC606EC-C2E1-455C-89E1-94C7ADB13038}" name="42 VMBO GL t/m VMBO TL" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{7F3CAB11-C221-4206-A924-D6F3FB53E4B8}" name="44 VMBO GL t/m HAVO"/>
     <tableColumn id="9" xr3:uid="{AC2737A1-4669-406D-8D47-901EC9423D03}" name="60 HAVO"/>
     <tableColumn id="10" xr3:uid="{0D2C6DEB-7130-4AFD-AE78-A8D71C6B97D5}" name="61 HAVO-VWO"/>
-    <tableColumn id="11" xr3:uid="{C649DA72-A3E2-4DCD-97C3-BB555A51A143}" name="70 VWO" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C649DA72-A3E2-4DCD-97C3-BB555A51A143}" name="70 VWO" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,63 +618,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34182142-A235-4E2F-AE4E-9DCDADB8A8AF}">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -664,12 +686,12 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -677,142 +699,155 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="H13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="H14" s="3"/>
+      <c r="D14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="D15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="H16" s="3"/>
+      <c r="D16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -820,11 +855,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -832,11 +868,12 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="I18" s="3"/>
+      <c r="F18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -844,11 +881,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="I19" s="3"/>
+      <c r="F19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -856,11 +894,12 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="I20" s="3"/>
+      <c r="F20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -868,11 +907,12 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="I21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -881,10 +921,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="J22" s="3"/>
+      <c r="G22" s="2"/>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -894,9 +935,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -907,8 +949,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -920,8 +963,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -929,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -937,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -945,7 +989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -960,71 +1004,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C145F424-62EC-B349-948B-3BC3E2E2E5C9}">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>28</v>
@@ -1050,8 +1098,11 @@
       <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1061,8 +1112,8 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -1085,16 +1136,19 @@
       <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -1102,8 +1156,8 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1120,16 +1174,19 @@
       <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -1137,8 +1194,8 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
+      <c r="F6" t="s">
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>28</v>
@@ -1155,16 +1212,19 @@
       <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1175,8 +1235,8 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
+      <c r="G7" t="s">
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
@@ -1190,16 +1250,19 @@
       <c r="K7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1210,8 +1273,8 @@
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
+      <c r="G8" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
@@ -1225,16 +1288,19 @@
       <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1245,8 +1311,8 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
+      <c r="G9" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
@@ -1260,16 +1326,19 @@
       <c r="K9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1280,8 +1349,8 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
+      <c r="G10" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
@@ -1295,8 +1364,11 @@
       <c r="K10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1306,8 +1378,8 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1318,8 +1390,8 @@
       <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
+      <c r="H11" t="s">
+        <v>29</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>28</v>
@@ -1330,8 +1402,11 @@
       <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1341,8 +1416,8 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -1353,8 +1428,8 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>28</v>
@@ -1365,8 +1440,11 @@
       <c r="K12" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1376,8 +1454,8 @@
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -1388,8 +1466,8 @@
       <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
+      <c r="H13" t="s">
+        <v>29</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>28</v>
@@ -1400,8 +1478,11 @@
       <c r="K13" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1411,8 +1492,8 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -1423,8 +1504,8 @@
       <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
+      <c r="H14" t="s">
+        <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>28</v>
@@ -1435,8 +1516,11 @@
       <c r="K14" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1446,8 +1530,8 @@
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -1458,8 +1542,8 @@
       <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
+      <c r="H15" t="s">
+        <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>28</v>
@@ -1470,8 +1554,11 @@
       <c r="K15" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1481,8 +1568,8 @@
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1493,8 +1580,8 @@
       <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>28</v>
+      <c r="H16" t="s">
+        <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>28</v>
@@ -1505,8 +1592,11 @@
       <c r="K16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1522,8 +1612,8 @@
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>29</v>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -1531,8 +1621,8 @@
       <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>28</v>
+      <c r="I17" t="s">
+        <v>29</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>28</v>
@@ -1540,8 +1630,11 @@
       <c r="K17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1557,8 +1650,8 @@
       <c r="E18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
-        <v>29</v>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
@@ -1566,8 +1659,8 @@
       <c r="H18" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>28</v>
+      <c r="I18" t="s">
+        <v>29</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>28</v>
@@ -1575,8 +1668,11 @@
       <c r="K18" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1592,8 +1688,8 @@
       <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
-        <v>29</v>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
@@ -1601,8 +1697,8 @@
       <c r="H19" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>28</v>
+      <c r="I19" t="s">
+        <v>29</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>28</v>
@@ -1610,8 +1706,11 @@
       <c r="K19" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1627,8 +1726,8 @@
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>29</v>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -1636,8 +1735,8 @@
       <c r="H20" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>28</v>
+      <c r="I20" t="s">
+        <v>29</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>28</v>
@@ -1645,8 +1744,11 @@
       <c r="K20" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1662,8 +1764,8 @@
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
-        <v>29</v>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -1671,8 +1773,8 @@
       <c r="H21" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>28</v>
+      <c r="I21" t="s">
+        <v>29</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>28</v>
@@ -1680,8 +1782,11 @@
       <c r="K21" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1700,8 +1805,8 @@
       <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G22" t="s">
-        <v>29</v>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -1709,14 +1814,17 @@
       <c r="I22" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>28</v>
+      <c r="J22" t="s">
+        <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1738,8 +1846,8 @@
       <c r="G23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H23" t="s">
-        <v>29</v>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I23" t="s">
         <v>29</v>
@@ -1747,11 +1855,14 @@
       <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1776,8 +1887,8 @@
       <c r="H24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
-        <v>29</v>
+      <c r="I24" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="J24" t="s">
         <v>29</v>
@@ -1785,8 +1896,11 @@
       <c r="K24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,14 +1928,18 @@
       <c r="I25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J25" t="s">
-        <v>29</v>
+      <c r="J25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K25" t="s">
         <v>29</v>
       </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
